--- a/biology/Zoologie/Harpactea/Harpactea.xlsx
+++ b/biology/Zoologie/Harpactea/Harpactea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Harpactea est un genre d'araignées aranéomorphes de la famille des Dysderidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Harpactea est un genre d'araignées aranéomorphes de la famille des Dysderidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Europe, en Afrique du Nord, au Moyen-Orient et en Asie centrale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Europe, en Afrique du Nord, au Moyen-Orient et en Asie centrale.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Paléontologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est connue depuis le Paléogène[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est connue depuis le Paléogène.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 26/02/2024)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 26/02/2024) :
 Harpactea abantia (Simon, 1885)
 Harpactea abasgiana Zamani &amp; Marusik, 2024
 Harpactea achsuensis Dunin, 1991
@@ -787,7 +805,7 @@
 Harpactea zannonensis Alicata, 1966
 Harpactea zjuzini Dunin, 1991
 Harpactea zoiai Gasparo, 1999
-Selon World Spider Catalog (version 23.5, 2023)[2] :
+Selon World Spider Catalog (version 23.5, 2023) :
 † Harpactea communis Wunderlich, 2004
 † Harpactea extincta Petrunkevitch, 1950
 † Harpactea longibulbus Wunderlich, 2011
@@ -819,9 +837,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Harpactes[3] Templeton, 1835 préoccupé par Harpactes Swainson, 1833 a été remplacé par Harpactea par Bristowe en 1939[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Harpactes Templeton, 1835 préoccupé par Harpactes Swainson, 1833 a été remplacé par Harpactea par Bristowe en 1939.
 </t>
         </is>
       </c>
@@ -850,7 +870,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Bristowe, 1939 : The Comity of Spiders. Ray Society, London, vol. 1, p. 1-228.
 Templeton, 1835 : « On the spiders of the genus Dysdera Latr. with the description of a new allied genus. » The Zoological Journal, vol. 5, p. 400-408 (texte intégral).</t>
